--- a/Data/password.xlsx
+++ b/Data/password.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +648,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Radha Krishna Agency |DLR00000000173916</t>
+          <t>Manohar Transport |DLR00000000173916</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ganaga Sales|DLR00000000173200</t>
+          <t>Gajanan Grain Store|DLR000000178408</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2702</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kiran Enterprises|DLR000000178410</t>
+          <t>Ganaga Sales|DLR00000000173200</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3283</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lalji Sales|DLR000000178409</t>
+          <t>Kiran Enterprises|DLR000000178410</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1673</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Master Trading|DLR00000000173293</t>
+          <t>Lalji Sales|DLR000000178409</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8504</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nilam Agency|DLR00000000173294</t>
+          <t>Master Trading|DLR00000000173293</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7156</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Om Sai Ganesh|DLR00000000172769</t>
+          <t>Nilam Agency|DLR00000000173294</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6054</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Reeyan Enterprises|DLR00000000173187</t>
+          <t>Om Sai Ganesh|DLR00000000172769</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8539</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>S.P Enterpriese|DLR00000000172771</t>
+          <t>Reeyan Enterprises|DLR00000000173187</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1882</v>
+        <v>8539</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Shree Ram Agency|DLR00000000173201</t>
+          <t>S.P Enterpriese|DLR00000000172771</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2008</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Shree. Shiv Samartha Enterprises|DLR000000181362</t>
+          <t>Shree Ram Agency|DLR00000000173201</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4491</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>V S Marketing|DLR00000000173199</t>
+          <t>Shree. Shiv Samartha Enterprises|DLR000000181362</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2774</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wbm Marketing|DLR00000000173198</t>
+          <t>V S Marketing|DLR00000000173199</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2615</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="40">
@@ -1223,16 +1223,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jai Mata Di Agency|ACUSDSS001</t>
+          <t>J.K. Brothers|ACUSDJ4838</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kanak Enterprises|DLR00000000175377</t>
+          <t>Wbm Marketing|DLR00000000173198</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2459</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vijay Sales Corporation| </t>
+          <t>Kanak Enterprises|DLR00000000175377</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4818</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vijay Traders| </t>
+          <t xml:space="preserve">Vijay Sales Corporation| </t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5826</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yogesh Agency| </t>
+          <t xml:space="preserve">Vijay Sales Corporation| </t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7056</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="44">
@@ -1303,16 +1303,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jainil Traders|ACUSDJ0023</t>
+          <t>Jai Mata Di Agency|ACUSDSS001</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ajinkya Traders|DLR00000000170058</t>
+          <t xml:space="preserve">Vijay Traders| </t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7685</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="45">
@@ -1323,16 +1323,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Jainil Traders|ACUSDJ0023</t>
+          <t>Jai Mata Di Agency|ACUSDSS001</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Atharva Agency|DLR00000000170059</t>
+          <t xml:space="preserve">Vijay Traders| </t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8405</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="46">
@@ -1343,16 +1343,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jainil Traders|ACUSDJ0023</t>
+          <t>Jai Mata Di Agency|ACUSDSS001</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bholanath Kirana Stores|DLR00000000170060</t>
+          <t xml:space="preserve">Yogesh Agency| </t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2937</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="47">
@@ -1363,16 +1363,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jainil Traders|ACUSDJ0023</t>
+          <t>Jai Mata Di Agency|ACUSDSS001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hiranand Traders|DLR00000000170062</t>
+          <t xml:space="preserve">Yogesh Agency| </t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4633</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Jai Gurudev Enterprises|DLR00000000170063</t>
+          <t>Atharva Agency|DLR00000000170059</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8748</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="49">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Manibhadra Sales|DLR00000000170064</t>
+          <t>Bholanath Kirana Stores|DLR00000000170060</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5960</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Om Sai Enterprises|DLR00000000170066</t>
+          <t>Hiranand Traders|DLR00000000170062</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4555</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Parag Enterprises|DLR00000000170073</t>
+          <t>Jai Gurudev Enterprises|DLR00000000170063</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2029</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Prabhat Agencies (Pg)|DLR00000000170074</t>
+          <t>Manibhadra Sales|DLR00000000170064</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3696</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Prahas Enterprise|DLR00000000170075</t>
+          <t>Om Sai Enterprises|DLR00000000170066</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7433</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Qamruddin Darbari Khan|DLR00000000172680</t>
+          <t>Parag Enterprises|DLR00000000170073</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7384</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="55">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Shah Agency|DLR00000000170076</t>
+          <t>Prabhat Agencies (Pg)|DLR00000000170074</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7164</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="56">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Shiv Shakti Agency|DLR00000000170077</t>
+          <t>Prahas Enterprise|DLR00000000170075</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5108</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="57">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Shree Enterprises|DLR00000000170890</t>
+          <t>Qamruddin Darbari Khan|DLR00000000172680</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2860</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Shree Ganesh Traders|DLR00000000170078</t>
+          <t>Shah Agency|DLR00000000170076</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2946</v>
+        <v>7164</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Shree Saikrupa Traders|DLR00000000170067</t>
+          <t>Shiv Shakti Agency|DLR00000000170077</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8154</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="60">
@@ -1623,16 +1623,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Krishna Agencies|ACUSDSS003</t>
+          <t>Jainil Traders|ACUSDJ0023</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">H M Agencies| </t>
+          <t>Shree Enterprises|DLR00000000170890</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3331</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="61">
@@ -1643,16 +1643,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Krishna Agencies|ACUSDSS003</t>
+          <t>Jainil Traders|ACUSDJ0023</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mayur Enterprises| </t>
+          <t>Shree Ganesh Traders|DLR00000000170078</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6591</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="62">
@@ -1663,16 +1663,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Krishna Agencies|ACUSDSS003</t>
+          <t>Jainil Traders|ACUSDJ0023</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radhaswami Depatment| </t>
+          <t>Shree Saikrupa Traders|DLR00000000170067</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>7648</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="63">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shri Gajanan Trading Co| </t>
+          <t xml:space="preserve">H M Agencies| </t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7643</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varad Agencies| </t>
+          <t xml:space="preserve">Mayur Enterprises| </t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4132</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="65">
@@ -1723,16 +1723,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Navinya Enterprises|ACUSDN0052</t>
+          <t>Krishna Agencies|ACUSDSS003</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balaji Enterprises | </t>
+          <t xml:space="preserve">Radhaswami Depatment| </t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4936</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="66">
@@ -1743,16 +1743,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Navinya Enterprises|ACUSDN0052</t>
+          <t>Krishna Agencies|ACUSDSS003</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Shree Enterprises |DLR00000000177664</t>
+          <t xml:space="preserve">Shri Gajanan Trading Co| </t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4959</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="67">
@@ -1763,16 +1763,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Navinya Enterprises|ACUSDN0052</t>
+          <t>Krishna Agencies|ACUSDSS003</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Shree Ganesh Ramesh Parkar|DLR00000000177666</t>
+          <t xml:space="preserve">Varad Agencies| </t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4778</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="68">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shri Swami Samarth Enterprises | </t>
+          <t>Balaji Enterprises |DLR00000000177665</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>8954</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="69">
@@ -1803,16 +1803,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nidhi Sales|ACUSDN4807</t>
+          <t>Navinya Enterprises|ACUSDN0052</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Alishan Traders|DLR000000173944</t>
+          <t>Saleshwar Yakshini Agency|DLR00000000177777</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>5966</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="70">
@@ -1823,16 +1823,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nidhi Sales|ACUSDN4807</t>
+          <t>Navinya Enterprises|ACUSDN0052</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ashapura Sales                |DLR00000000173422</t>
+          <t>Shree Enterprises |DLR00000000177664</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1491</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="71">
@@ -1843,16 +1843,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Nidhi Sales|ACUSDN4807</t>
+          <t>Navinya Enterprises|ACUSDN0052</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Divya Agency|DLR00000000173424</t>
+          <t>Shree Ganesh Ramesh Parkar|DLR00000000177666</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2527</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="72">
@@ -1863,16 +1863,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Nidhi Sales|ACUSDN4807</t>
+          <t>Navinya Enterprises|ACUSDN0052</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Jay Sai Trading Virar E|DLR00000000173554</t>
+          <t>Shree Swami Samarth Enterprises |DLR00000000177778</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4720</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="73">
@@ -1883,16 +1883,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nidhi Sales|ACUSDN4807</t>
+          <t>Navinya Enterprises|ACUSDN0052</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kamal Enterprise        |DLR00000000173423</t>
+          <t>Shri Swami Samarth Enterprises |DLR00000000177667</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1692</v>
+        <v>8954</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nidhi Enterprises             |DLR00000000173419</t>
+          <t>Alishan Traders|DLR000000173944</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4785</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nidhi Trading            |DLR00000000173467</t>
+          <t>Ashapura Sales                |DLR00000000173422</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1463</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="76">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Om Trading Co                 |DLR00000000173417</t>
+          <t>Divya Agency|DLR00000000173424</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>8437</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="77">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Shree Sainath Agencies        |DLR00000000173421</t>
+          <t>Jay Sai Trading Virar E|DLR00000000173554</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6449</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Siddhivinyak Sales Agency|DLR00000000173415</t>
+          <t>Kamal Enterprise        |DLR00000000173423</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5287</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Vishnu Enterprise            |DLR00000000173420</t>
+          <t>Nidhi Enterprises             |DLR00000000173419</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8538</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="80">
@@ -2023,16 +2023,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Optimize Crusder|ACUSDO0026</t>
+          <t>Nidhi Sales|ACUSDN4807</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashutosh Trading| </t>
+          <t>Nidhi Trading            |DLR00000000173467</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7010</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="81">
@@ -2043,16 +2043,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Optimize Crusder|ACUSDO0026</t>
+          <t>Nidhi Sales|ACUSDN4807</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asif Trader'S| </t>
+          <t>Om Trading Co                 |DLR00000000173417</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>7824</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="82">
@@ -2063,16 +2063,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Optimize Crusder|ACUSDO0026</t>
+          <t>Nidhi Sales|ACUSDN4807</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atharva Agency| </t>
+          <t>Shree Sainath Agencies        |DLR00000000173421</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7243</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="83">
@@ -2083,16 +2083,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Optimize Crusder|ACUSDO0026</t>
+          <t>Nidhi Sales|ACUSDN4807</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bhargav Marketing| </t>
+          <t>Siddhivinyak Sales Agency|DLR00000000173415</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1285</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="84">
@@ -2103,16 +2103,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Optimize Crusder|ACUSDO0026</t>
+          <t>Nidhi Sales|ACUSDN4807</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bhute Agency| </t>
+          <t>Vishnu Enterprise            |DLR00000000173420</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6602</v>
+        <v>8538</v>
       </c>
     </row>
     <row r="85">
@@ -2123,16 +2123,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Optimize Crusder|ACUSDO0026</t>
+          <t>Nidhi Sales|NIDHI SALES</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bikaner Agency| </t>
+          <t xml:space="preserve">Sainath Enterprises| </t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3165</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deva Agency| </t>
+          <t xml:space="preserve">Ashutosh Trading| </t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3812</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Duttkrupa Agency| </t>
+          <t xml:space="preserve">Asif Trader'S| </t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2855</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Golden Foods| </t>
+          <t xml:space="preserve">Atharva Agency| </t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3271</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laxmi Trading| </t>
+          <t xml:space="preserve">Bhargav Marketing| </t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>7787</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="90">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mahalaxmi Agency| </t>
+          <t xml:space="preserve">Bhute Agency| </t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>7464</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="91">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohak Trader'S| </t>
+          <t xml:space="preserve">Bikaner Agency| </t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2517</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="92">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nakshtra Agency| </t>
+          <t xml:space="preserve">Deva Agency| </t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2976</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="93">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Narayan Marketing| </t>
+          <t xml:space="preserve">Duttkrupa Agency| </t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>5916</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="94">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Rozina Agency| </t>
+          <t xml:space="preserve">Golden Foods| </t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>8361</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="95">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Payal Agency| </t>
+          <t xml:space="preserve">Laxmi Trading| </t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4431</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="96">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rajesh Agency| </t>
+          <t xml:space="preserve">Mahalaxmi Agency| </t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3283</v>
+        <v>7464</v>
       </c>
     </row>
     <row r="97">
@@ -2368,11 +2368,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rk Trader'S| </t>
+          <t xml:space="preserve">Mohak Trader'S| </t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4749</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="98">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roshan Trader'S| </t>
+          <t xml:space="preserve">Nakshtra Agency| </t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>8493</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="99">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">S &amp; S Traders| </t>
+          <t xml:space="preserve">Narayan Marketing| </t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5121</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="100">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shreeji Foods| </t>
+          <t xml:space="preserve">New Rozina Agency| </t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>7841</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="101">
@@ -2448,11 +2448,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shri Krishna Marketing| </t>
+          <t xml:space="preserve">Payal Agency| </t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3874</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="102">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sp Agency| </t>
+          <t xml:space="preserve">Rajesh Agency| </t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4916</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="103">
@@ -2483,16 +2483,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Prabhat Agency|ACUSDP2385</t>
+          <t>Optimize Crusder|ACUSDO0026</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>A.1 Enterprises |DLR000000174894</t>
+          <t xml:space="preserve">Rk Trader'S| </t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4106</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="104">
@@ -2503,16 +2503,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Prabhat Agency|ACUSDP2385</t>
+          <t>Optimize Crusder|ACUSDO0026</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Arihant Traders|DLR00000000172196</t>
+          <t xml:space="preserve">Roshan Trader'S| </t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>8737</v>
+        <v>8493</v>
       </c>
     </row>
     <row r="105">
@@ -2523,16 +2523,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Prabhat Agency|ACUSDP2385</t>
+          <t>Optimize Crusder|ACUSDO0026</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Garv Trading Co Gandhinagar|DLR00000000172200</t>
+          <t xml:space="preserve">S &amp; S Traders| </t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>8468</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="106">
@@ -2543,16 +2543,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Prabhat Agency|ACUSDP2385</t>
+          <t>Optimize Crusder|ACUSDO0026</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Haripriya Agencies|DLR00000000172199</t>
+          <t xml:space="preserve">Shreeji Foods| </t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>6747</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="107">
@@ -2563,16 +2563,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Prabhat Agency|ACUSDP2385</t>
+          <t>Optimize Crusder|ACUSDO0026</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Harsharaj Agencies|DLR00000000172201</t>
+          <t xml:space="preserve">Shri Krishna Marketing| </t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2971</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="108">
@@ -2583,16 +2583,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Prabhat Agency|ACUSDP2385</t>
+          <t>Optimize Crusder|ACUSDO0026</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Keshav Patil And Sons|DLR00000000172203</t>
+          <t xml:space="preserve">Sp Agency| </t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4893</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="109">
@@ -2608,11 +2608,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>New Sharada Stores Kolhapur|DLR00000000172204</t>
+          <t>A.1 Enterprises |DLR000000174894</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6083</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="110">
@@ -2628,11 +2628,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Nitin Agencies|DLR00000000172205</t>
+          <t>Arihant Traders |DLR00000000172196</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5355</v>
+        <v>8737</v>
       </c>
     </row>
     <row r="111">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Renuka Trading Co|DLR00000000172207</t>
+          <t>Garv Trading Co Gandhinagar|DLR00000000172200</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>8138</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="112">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Rutuja Agencies|DLR00000000172208</t>
+          <t>Haripriya Agencies|DLR00000000172199</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>8352</v>
+        <v>6747</v>
       </c>
     </row>
     <row r="113">
@@ -2688,11 +2688,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sai Agencies|DLR00000000172213</t>
+          <t>Harsharaj Agencies|DLR00000000172201</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1245</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="114">
@@ -2708,11 +2708,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Shinde Agencies|DLR00000000172211</t>
+          <t>Keshav Patil And Sons|DLR00000000172203</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>6162</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="115">
@@ -2728,11 +2728,11 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Shri Datta Guru Agencies|DLR00000000172212</t>
+          <t>New Sharada Stores Kolhapur|DLR00000000172204</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3377</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="116">
@@ -2748,11 +2748,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Shri Ram Agencies|DLR00000000172214</t>
+          <t>Nitin Agencies|DLR00000000172205</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>4744</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="117">
@@ -2768,11 +2768,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Suyog Agencies|DLR00000000172209</t>
+          <t>Renuka Trading Co|DLR00000000172207</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6009</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="118">
@@ -2788,11 +2788,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Veera Agencies|DLR00000000172215</t>
+          <t>Rutuja Agencies|DLR00000000172208</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3744</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="119">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vinit Enterprises|DLR00000000172216</t>
+          <t>Sai Agencies|DLR00000000172213</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3782</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="120">
@@ -2823,16 +2823,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Prabhat Trading Com.|ACUSDP0183</t>
+          <t>Prabhat Agency|ACUSDP2385</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Balaji Enterprises|DLR00000000169857</t>
+          <t>Shinde Agencies|DLR00000000172211</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2824</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="121">
@@ -2843,16 +2843,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Prabhat Trading Com.|ACUSDP0183</t>
+          <t>Prabhat Agency|ACUSDP2385</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Counter Sale|DLR00000000170426</t>
+          <t>Shri Datta Guru Agencies|DLR00000000172212</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3348</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="122">
@@ -2863,16 +2863,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Prabhat Trading Com.|ACUSDP0183</t>
+          <t>Prabhat Agency|ACUSDP2385</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Gala Enterpriese|DLR00000000173568</t>
+          <t>Shri Ram Agencies|DLR00000000172214</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3915</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="123">
@@ -2883,16 +2883,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Prabhat Trading Com.|ACUSDP0183</t>
+          <t>Prabhat Agency|ACUSDP2385</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>J.P. Agencies|DLR00000000169838</t>
+          <t>Suyog Agencies|DLR00000000172209</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6313</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="124">
@@ -2903,16 +2903,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Prabhat Trading Com.|ACUSDP0183</t>
+          <t>Prabhat Agency|ACUSDP2385</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Khyati Enterprise|DLR00000000170105</t>
+          <t>Veera Agencies|DLR00000000172215</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2718</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="125">
@@ -2923,16 +2923,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Prabhat Trading Com.|ACUSDP0183</t>
+          <t>Prabhat Agency|ACUSDP2385</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>S.S.V Enterprises|DLR00000000173191</t>
+          <t>Vinit Enterprises|DLR00000000172216</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3739</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="126">
@@ -2948,11 +2948,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Shree Murugan Agency|DLR00000000170635</t>
+          <t>Balaji Enterprises|DLR00000000169857</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>4897</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="127">
@@ -2968,11 +2968,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Star Sales|DLR00000000169970</t>
+          <t>Counter Sale|DLR00000000170426</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>8843</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="128">
@@ -2983,16 +2983,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Shree Datta Agency|ACUSDSS004</t>
+          <t>Prabhat Trading Com.|ACUSDP0183</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aishwarya Distributors| </t>
+          <t>Gala Enterpriese|DLR00000000173568</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>8750</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="129">
@@ -3003,16 +3003,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Shree Datta Agency|ACUSDSS004</t>
+          <t>Prabhat Trading Com.|ACUSDP0183</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Chintamani Distributors|DLR00000000174149</t>
+          <t>J.P. Agencies|DLR00000000169838</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2037</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="130">
@@ -3023,16 +3023,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Shree Datta Agency|ACUSDSS004</t>
+          <t>Prabhat Trading Com.|ACUSDP0183</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Innovator Distributor |DLR000000174205</t>
+          <t>Momai Sales|DLR000000183902</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2766</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="131">
@@ -3043,16 +3043,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Shree Datta Agency|ACUSDSS004</t>
+          <t>Prabhat Trading Com.|ACUSDP0183</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pakiza Enterprises| </t>
+          <t>S.S.V Enterprises|DLR00000000173191</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>7570</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="132">
@@ -3063,16 +3063,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Shree Datta Agency|ACUSDSS004</t>
+          <t>Prabhat Trading Com.|ACUSDP0183</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Parshwanath Agency|DLR000000174204</t>
+          <t>Sainath Enterprises|DLR000000182834</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>4506</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="133">
@@ -3083,16 +3083,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Shree Datta Agency|ACUSDSS004</t>
+          <t>Prabhat Trading Com.|ACUSDP0183</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Raghukul Agency |DLR00000000174143</t>
+          <t>Shree Murugan Agency|DLR00000000170635</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>7586</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="134">
@@ -3103,16 +3103,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Shree Datta Agency|ACUSDSS004</t>
+          <t>Prabhat Trading Com.|ACUSDP0183</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sai Enterprises |DLR00000000174150</t>
+          <t>Star Sales|DLR00000000169970</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>8549</v>
+        <v>8843</v>
       </c>
     </row>
     <row r="135">
@@ -3128,11 +3128,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Shree Bramhchaitanya Agency|DLR00000000174148</t>
+          <t>Adishakti Enterprises |DLR000000184235</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>4607</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="136">
@@ -3143,16 +3143,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>A.B.Agencies ( Pg-Rajguru Nagar )|DLR00000000173062</t>
+          <t xml:space="preserve">Aishwarya Distributors| </t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3815</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="137">
@@ -3163,16 +3163,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Adhira Agency - Pg|DLR00000000173079</t>
+          <t>Akshay Trading Company |DLR000000184238</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>5474</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="138">
@@ -3183,16 +3183,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ajinkaya Bazar ( Pg- Baramati )|DLR00000000173077</t>
+          <t>Balaji Traders |DLR000000184239</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>7580</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="139">
@@ -3203,16 +3203,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Atharva Distributor ( P.G )|DLR00000000173118</t>
+          <t>Chintamani Distributors|DLR00000000174149</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4781</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="140">
@@ -3223,16 +3223,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Atharva Distributors ( P.G Junnar )|DLR00000000173117</t>
+          <t>Chintamani Distributors|DLR00000000174149</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1361</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="141">
@@ -3243,16 +3243,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Bhumi Enterprises |DLR00000000173829</t>
+          <t>Innovator Distributor |DLR000000174205</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>5490</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="142">
@@ -3263,16 +3263,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>C.J.Pardeshi ( Pg )|DLR00000000173114</t>
+          <t>Innovator Distributor |DLR000000174205</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>5516</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="143">
@@ -3283,16 +3283,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>J K Enterprises ( Pg Narayangaon )|DLR000000173973</t>
+          <t xml:space="preserve">Pakiza Enterprises| </t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>6852</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="144">
@@ -3303,16 +3303,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>K. Mart ( Pg - Baramati )|DLR00000000173356</t>
+          <t xml:space="preserve">Pakiza Enterprises| </t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>6223</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="145">
@@ -3323,16 +3323,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Kewal &amp; Co ( Pg )|DLR00000000173101</t>
+          <t>Parshwanath Agency|DLR000000174204</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>8119</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="146">
@@ -3343,16 +3343,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Krishna Agencies ( Pg )|DLR00000000173100</t>
+          <t>Parshwanath Agency|DLR000000174204</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>7253</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="147">
@@ -3363,16 +3363,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Prabhat Agencies ( Pg )|DLR00000000173086</t>
+          <t>Raghukul Agency |DLR00000000174143</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>8664</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="148">
@@ -3383,16 +3383,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>S.M Enterprise |DLR000000181375</t>
+          <t>Raghukul Agency |DLR00000000174143</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>7307</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="149">
@@ -3403,16 +3403,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sai Samrth Hojiyeri|DLR000000174171</t>
+          <t>Rajluxmi Traderrz|DLR000000184236</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8244</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="150">
@@ -3423,16 +3423,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sainik Canteens ( Pg - Saswad)|DLR00000000173080</t>
+          <t>Sai Enterprises |DLR00000000174150</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>5839</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="151">
@@ -3443,16 +3443,16 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Shaheen Enterprises(Pg)|DLR00000000173075</t>
+          <t>Sai Enterprises |DLR00000000174150</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>6574</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="152">
@@ -3463,16 +3463,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Shree Datta Agency ( Pg )|DLR00000000173074</t>
+          <t>Shree Bramhchaitanya Agency|DLR00000000174148</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>5066</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="153">
@@ -3483,16 +3483,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Shree Kulswamini Distributors |DLR000000174172</t>
+          <t>Shree Bramhchaitanya Agency|DLR00000000174148</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>4071</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="154">
@@ -3503,16 +3503,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Shri Ganesh Agencies (Pg Bhosari )|DLR00000000173072</t>
+          <t>Shubhankar Enterprises |DLR000000184240</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2286</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="155">
@@ -3523,16 +3523,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Shree Krishna Marketing|ACUSDSS006</t>
+          <t>Shree Datta Agency|ACUSDSS004</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sp Traders ( Pg -Baramati)|DLR00000000173068</t>
+          <t>Viraj Traders |DLR000000184234</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>4933</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="156">
@@ -3548,11 +3548,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Supermart Stores ( Pg-Bhosri)|DLR00000000173066</t>
+          <t>Atharva Distributor ( P.G )|DLR00000000173118</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1883</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="157">
@@ -3568,11 +3568,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Swami Samarth Agency ( Pg - Baramati )|DLR00000000173057</t>
+          <t>Atharva Distributors ( P.G Junnar )|DLR00000000173117</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4329</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="158">
@@ -3588,11 +3588,11 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Taj Sweet ( Pg - Malegaon)|DLR00000000173121</t>
+          <t>Bhumi Enterprises |DLR00000000173829</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>5816</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="159">
@@ -3608,11 +3608,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Tirupati Agencies ( Pg )|DLR00000000173055</t>
+          <t>C.J.Pardeshi ( Pg )|DLR00000000173114</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1474</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="160">
@@ -3628,11 +3628,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Tridev  Agencys ( Pg )|DLR00000000173054</t>
+          <t>J K Enterprises ( Pg Narayangaon )|DLR000000173973</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>8578</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="161">
@@ -3648,11 +3648,11 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Vijay Holsale - Pg|DLR00000000173802</t>
+          <t>Juice Craft Foods &amp; Beverages Pvt Ltd|DLR00000000181973</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>5750</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="162">
@@ -3668,11 +3668,11 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Yashraj Marketing ( Pg-Daund )|DLR00000000173050</t>
+          <t>K. Mart ( Pg - Baramati )|DLR00000000173356</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>6010</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="163">
@@ -3683,16 +3683,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ankur Enterprises-Pg-Dombivli|DLR00000000166271</t>
+          <t>Krishna Agencies ( Pg )|DLR00000000173100</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>6825</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="164">
@@ -3703,16 +3703,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>B B Trading-Pg Virar €|DLR00000000166273</t>
+          <t xml:space="preserve">Mr.Gaikwad| </t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3781</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="165">
@@ -3723,16 +3723,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Bhanu Agency-Pg-Kalyan|DLR00000000166277</t>
+          <t>Om Sai Agency|DLR00000000178376</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1528</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="166">
@@ -3743,16 +3743,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Capital Sales|DLR00000000171670</t>
+          <t>Prabhat Agencies ( Pg )|DLR00000000173086</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>7851</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="167">
@@ -3763,16 +3763,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Daiwik Enterprises-Pg-Ambernath|DLR00000000171030</t>
+          <t>S.M Enterprise |DLR000000181375</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>5695</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="168">
@@ -3783,16 +3783,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Gala Agency-Pg-Dombivli|DLR00000000166279</t>
+          <t>Sai Samrth Hojiyeri|DLR000000174171</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>7146</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="169">
@@ -3803,16 +3803,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Jai Jalaram Traders-Pg-Vrajeshwari|DLR00000000166275</t>
+          <t>Sainik Canteens ( Pg - Saswad)|DLR00000000173080</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>8796</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="170">
@@ -3823,16 +3823,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Manish Agency-Pg-Wada|DLR00000000166276</t>
+          <t>Shaheen Enterprises(Pg)|DLR00000000173075</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>8074</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="171">
@@ -3843,16 +3843,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Minerva Agency-Pg-Ulhasnagar|DLR00000000166281</t>
+          <t>Shree Datta Agency ( Pg )|DLR00000000173074</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8118</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="172">
@@ -3863,16 +3863,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Moin Raja Eneterprises-Pg-Murbad|DLR00000000166282</t>
+          <t>Shree Kulswamini Distributors |DLR000000174172</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>8936</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="173">
@@ -3883,16 +3883,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Nimesh Sales-Pg-Bhiwandi|DLR00000000166283</t>
+          <t>Shri Ganesh Agencies (Pg Bhosari )|DLR00000000173072</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6616</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="174">
@@ -3903,16 +3903,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Omkar Enterprises-Pg-Vashind|DLR00000000166284</t>
+          <t>Sp Traders ( Pg -Baramati)|DLR00000000173068</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>8264</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="175">
@@ -3923,16 +3923,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Onkareshwar Enterprises-Pg-Wada|DLR00000000166285</t>
+          <t>Supermart Stores ( Pg-Bhosri)|DLR00000000173066</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>6797</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="176">
@@ -3943,16 +3943,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Poonam Enterprises-Pg-Titwala|DLR00000000166288</t>
+          <t>Swami Samarth Agency ( Pg - Baramati )|DLR00000000173057</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>6426</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="177">
@@ -3963,16 +3963,16 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Popular Agencies-Pg-Ulhasnagar|DLR00000000166289</t>
+          <t>Taj Sweet ( Pg - Malegaon)|DLR00000000173121</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>6042</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="178">
@@ -3983,16 +3983,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Prashant Trader-Pg-Badlapur|DLR00000000166294</t>
+          <t>Tirupati Agencies ( Pg )|DLR00000000173055</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2662</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="179">
@@ -4003,16 +4003,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Priyanshu Enterprises|DLR00000000173387</t>
+          <t>Tridev  Agencys ( Pg )|DLR00000000173054</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>8043</v>
+        <v>8578</v>
       </c>
     </row>
     <row r="180">
@@ -4023,16 +4023,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>R.P Enterprises-Pg-Diva|DLR00000000166297</t>
+          <t>Vijay Holsale - Pg|DLR00000000173802</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>5528</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="181">
@@ -4043,16 +4043,16 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sunrise Enterprises|ACUSDS0771</t>
+          <t>Shree Krishna Marketing|ACUSDSS006</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>R.P Traders-Pg-Kalwa|DLR00000000166298</t>
+          <t>Yashraj Marketing ( Pg-Daund )|DLR00000000173050</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>4068</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="182">
@@ -4068,11 +4068,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>R.P Trading Corporation-Pg-Turbha|DLR00000000173774</t>
+          <t>Ankur Enterprises-Pg-Dombivli|DLR00000000166271</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>6907</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="183">
@@ -4088,11 +4088,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Rajesh Shaha-Pg-Shahpur|DLR00000000166295</t>
+          <t>B B Trading-Pg Virar €|DLR00000000166273</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3919</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="184">
@@ -4108,11 +4108,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Ronak Agency-Pg-Virar|DLR00000000166296</t>
+          <t>Bhanu Agency-Pg-Kalyan|DLR00000000166277</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2180</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="185">
@@ -4128,11 +4128,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>S.K Sales-Pg-Bhiwandi|DLR000000174039</t>
+          <t>Capital Sales|DLR00000000171670</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>3882</v>
+        <v>7851</v>
       </c>
     </row>
     <row r="186">
@@ -4148,11 +4148,11 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Sai Enterprises|DLR00000000166299</t>
+          <t>Daiwik Enterprises-Pg-Ambernath|DLR00000000171030</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>4178</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="187">
@@ -4168,11 +4168,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Satish Chana|DLR00000000171031</t>
+          <t>Gala Agency-Pg-Dombivli|DLR00000000166279</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>4535</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="188">
@@ -4188,11 +4188,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Shah Agency-Pg-Virar|DLR00000000166291</t>
+          <t>Jai Jalaram Traders-Pg-Vrajeshwari|DLR00000000166275</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2499</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="189">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Shiv Shakti Agency-Pg-Shahpur|DLR00000000166292</t>
+          <t>Manish Agency-Pg-Wada|DLR00000000166276</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>3538</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="190">
@@ -4228,11 +4228,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Shree Samarth Agency-Pg-Mohane|DLR00000000166293</t>
+          <t>Minerva Agency-Pg-Ulhasnagar|DLR00000000166281</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>5358</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="191">
@@ -4248,11 +4248,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Shree Verai Agency|DLR00000000173461</t>
+          <t>Moin Raja Eneterprises-Pg-Murbad|DLR00000000166282</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>5042</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="192">
@@ -4268,11 +4268,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Thakkar Marketing-Pg-Bhiwandi|DLR00000000166308</t>
+          <t>Nimesh Sales-Pg-Bhiwandi|DLR00000000166283</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>3066</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="193">
@@ -4283,16 +4283,16 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Atul Agency|DLR00000000173678</t>
+          <t>Omkar Enterprises-Pg-Vashind|DLR00000000166284</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>5051</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="194">
@@ -4303,16 +4303,16 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Bhairavnath Sweets Coldrinks  Marketing Atapadi|DLR00000000173679</t>
+          <t>Onkareshwar Enterprises-Pg-Wada|DLR00000000166285</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>7348</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="195">
@@ -4323,16 +4323,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Gopi Agency|DLR00000000173665</t>
+          <t>Poonam Enterprises-Pg-Titwala|DLR00000000166288</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>5160</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="196">
@@ -4343,16 +4343,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Gouransh Enterprises|DLR00000000173664</t>
+          <t>Popular Agencies-Pg-Ulhasnagar|DLR00000000166289</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4941</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="197">
@@ -4363,16 +4363,16 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Gurukrupa Agency|DLR00000000173666</t>
+          <t>Prashant Trader-Pg-Badlapur|DLR00000000166294</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>4066</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="198">
@@ -4383,16 +4383,16 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Gurukrupa Traders|DLR00000000173685</t>
+          <t>Priyanshu Enterprises|DLR00000000173387</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>7170</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="199">
@@ -4403,16 +4403,16 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Haripriya Agencies Subhashnagar|DLR00000000173667</t>
+          <t>R.P Enterprises-Pg-Diva|DLR00000000166297</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>6012</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="200">
@@ -4423,16 +4423,16 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Lawange Enterprises|DLR00000000173673</t>
+          <t>R.P Traders-Pg-Kalwa|DLR00000000166298</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>7402</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="201">
@@ -4443,16 +4443,16 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Matoshri Agencies|DLR00000000173660</t>
+          <t>R.P Trading Corporation-Pg-Turbha|DLR00000000173774</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>5087</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="202">
@@ -4463,16 +4463,16 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Pradip Traders|DLR00000000173675</t>
+          <t>Rajesh Shaha-Pg-Shahpur|DLR00000000166295</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>4768</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="203">
@@ -4483,16 +4483,16 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Roopnarayan Enterprises Madhavnagar|DLR00000000173676</t>
+          <t>Ronak Agency-Pg-Virar|DLR00000000166296</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>5332</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="204">
@@ -4503,16 +4503,16 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>S B Enterprises|DLR00000000173661</t>
+          <t>S.K Sales-Pg-Bhiwandi|DLR000000174039</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>8230</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="205">
@@ -4523,16 +4523,16 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Sagare Agency|DLR00000000173680</t>
+          <t>Sai Enterprises|DLR00000000166299</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>4573</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="206">
@@ -4543,16 +4543,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Shatrunjay Distributers|DLR00000000173683</t>
+          <t>Satish Chana|DLR00000000171031</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>6840</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="207">
@@ -4563,16 +4563,16 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Sumati Agencies|DLR00000000173668</t>
+          <t>Shah Agency-Pg-Virar|DLR00000000166291</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2947</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="208">
@@ -4583,16 +4583,16 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tirupati Agencies|ACUSDSS002</t>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Sushant S Kavathekar Kananwadi|DLR00000000173669</t>
+          <t>Shiv Shakti Agency-Pg-Shahpur|DLR00000000166292</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2055</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="209">
@@ -4603,15 +4603,395 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Shree Samarth Agency-Pg-Mohane|DLR00000000166293</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Shree Verai Agency|DLR00000000173461</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Sunrise Enterprises|ACUSDS0771</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Thakkar Marketing-Pg-Bhiwandi|DLR00000000166308</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
           <t>Tirupati Agencies|ACUSDSS002</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Atul Agency|DLR00000000173678</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Bhairavnath Sweets Coldrinks  Marketing Atapadi|DLR00000000173679</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Gopi Agency|DLR00000000173665</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Gouransh Enterprises|DLR00000000173664</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Gurukrupa Agency|DLR00000000173666</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Gurukrupa Traders|DLR00000000173685</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Haripriya Agencies Subhashnagar|DLR00000000173667</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Lawange Enterprises|DLR00000000173673</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Matoshri Agencies|DLR00000000173660</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Pradip Traders|DLR00000000173675</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Roopnarayan Enterprises Madhavnagar|DLR00000000173676</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>S B Enterprises|DLR00000000173661</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Sagare Agency|DLR00000000173680</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Shatrunjay Distributers|DLR00000000173683</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Sumati Agencies|DLR00000000173668</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Sushant S Kavathekar Kananwadi|DLR00000000173669</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Tirupati Agencies|ACUSDSS002</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
         <is>
           <t xml:space="preserve">Vinayak Agency| </t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D228" t="n">
         <v>4901</v>
       </c>
     </row>
